--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_7_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_7_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-532356.80162277</v>
+        <v>-431346.1682968739</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631045</v>
+        <v>12244790.98632947</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809157</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9978469.929932259</v>
+        <v>10113309.92333336</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>5.043230622650124</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>28.11631013281968</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>24.76484596498756</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>28.11631013281968</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>28.11631013281968</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.76484596498756</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>28.11631013281968</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>28.11631013281968</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>131.231371934135</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>28.11631013281968</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>292.9082206543453</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>161.8673152882105</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>292.9082206543453</v>
+        <v>357.7090763209831</v>
       </c>
       <c r="X5" t="n">
-        <v>292.9082206543453</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -975,16 +975,16 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>2.197143109490603</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
         <v>93.11323406457203</v>
@@ -1026,13 +1026,13 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
         <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>78.16614128474187</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1111,16 +1111,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>97.56668878332935</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>69.57079805412756</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>55.85223673644445</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1348,16 +1348,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>31.52918765859654</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.31517967031814</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628861</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>30.78532107306659</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>260.3417921967419</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162745</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018496</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095509</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809814</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459096</v>
+        <v>167.9261600196069</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005334</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9982212447114</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392216</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>130.0464974647466</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316324</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573504</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.8857944620929</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>217.4850487393869</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831918</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628861</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.3417921967419</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162745</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018496</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>1.49558682210295</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809814</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005334</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447114</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392216</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647466</v>
+        <v>96.44420510686423</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.38190323419746</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.8857944620929</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740878</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831918</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628861</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162745</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>88.12625806200091</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809814</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005334</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447114</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392216</v>
+        <v>25.45817320599543</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647466</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>37.36157859846202</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573504</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.8857944620929</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740878</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831918</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628861</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.3417921967419</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162745</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018496</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>1.495586822103187</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809814</v>
+        <v>183.7429275004204</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005334</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447114</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>120.7541771402558</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647466</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316324</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>133.8857944620929</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740878</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831918</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628861</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.3417921967419</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162745</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018496</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809814</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005334</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447114</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392216</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647466</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316324</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573504</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>107.0243930273922</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740878</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831918</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>149.1427835161704</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>117.8622135428471</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>98.15366458399308</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686415</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523054</v>
+        <v>178.1668213893227</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>160.1553498542508</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>108.1577655104183</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105455</v>
+        <v>160.0456688475629</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448716</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705895</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334168</v>
+        <v>158.3362093704342</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607367</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>267.2851163790764</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454117</v>
+        <v>268.7968650824291</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>262.0063921535898</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>230.0407699530306</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545157</v>
+        <v>213.9818529915331</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295135</v>
+        <v>67.64901981295137</v>
       </c>
       <c r="T35" t="n">
         <v>183.0417138731735</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C37" t="n">
         <v>134.5782361172335</v>
@@ -3430,7 +3430,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F37" t="n">
         <v>134.4685551105455</v>
@@ -3442,7 +3442,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448714</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705894</v>
+        <v>10.89362580705895</v>
       </c>
       <c r="S37" t="n">
         <v>132.7590956334168</v>
@@ -3569,7 +3569,7 @@
         <v>371.9281974712906</v>
       </c>
       <c r="Y38" t="n">
-        <v>365.6092959720189</v>
+        <v>365.6092959720187</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C40" t="n">
         <v>134.5782361172335</v>
@@ -3667,7 +3667,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F40" t="n">
         <v>134.4685551105455</v>
@@ -3679,7 +3679,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3916,7 +3916,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T44" t="n">
         <v>183.0417138731735</v>
@@ -4034,7 +4034,7 @@
         <v>220.0967589369122</v>
       </c>
       <c r="V44" t="n">
-        <v>318.2399193523726</v>
+        <v>318.2399193523734</v>
       </c>
       <c r="W44" t="n">
         <v>356.7528348300169</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705895</v>
+        <v>10.893625807059</v>
       </c>
       <c r="S46" t="n">
         <v>132.7590956334168</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>1641.469525215368</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>1618.609199269072</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>1195.316578454073</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>769.3396386019302</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>344.2154567913304</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625574</v>
+        <v>339.1212844452192</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925403</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925403</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625574</v>
+        <v>403.8563647361495</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625574</v>
+        <v>914.3610754869183</v>
       </c>
       <c r="L2" t="n">
-        <v>30.08445184211706</v>
+        <v>1424.865786237687</v>
       </c>
       <c r="M2" t="n">
-        <v>57.91959887360855</v>
+        <v>1489.003481576616</v>
       </c>
       <c r="N2" t="n">
-        <v>57.91959887360855</v>
+        <v>1489.003481576616</v>
       </c>
       <c r="O2" t="n">
-        <v>85.75474590510004</v>
+        <v>1489.003481576616</v>
       </c>
       <c r="P2" t="n">
-        <v>112.4652405312787</v>
+        <v>1489.003481576616</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.4652405312787</v>
+        <v>1945.088961080799</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1666.253946263049</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1658.5743514712</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>1657.277485466494</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.66461400032987</v>
+        <v>608.3763969507092</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26430073485544</v>
+        <v>490.870493468214</v>
       </c>
       <c r="D3" t="n">
-        <v>27.26430073485544</v>
+        <v>387.0305349834991</v>
       </c>
       <c r="E3" t="n">
-        <v>2.249304810625575</v>
+        <v>282.3286012564363</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>94.62899915694445</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925403</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>48.69954888116587</v>
       </c>
       <c r="J3" t="n">
-        <v>30.08445184211706</v>
+        <v>48.69954888116587</v>
       </c>
       <c r="K3" t="n">
-        <v>30.08445184211706</v>
+        <v>559.2042596319346</v>
       </c>
       <c r="L3" t="n">
-        <v>30.08445184211706</v>
+        <v>559.2042596319346</v>
       </c>
       <c r="M3" t="n">
-        <v>30.08445184211706</v>
+        <v>559.2042596319346</v>
       </c>
       <c r="N3" t="n">
-        <v>30.08445184211706</v>
+        <v>559.2042596319346</v>
       </c>
       <c r="O3" t="n">
-        <v>56.79494646829576</v>
+        <v>875.2903488862157</v>
       </c>
       <c r="P3" t="n">
-        <v>56.79494646829576</v>
+        <v>1385.795059636984</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1768.616289061018</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>112.4652405312787</v>
+        <v>1236.995018417599</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>876.9962950174796</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.66461400032987</v>
+        <v>737.303406370772</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.04993134157444</v>
+        <v>1113.194701299256</v>
       </c>
       <c r="C4" t="n">
-        <v>59.04993134157444</v>
+        <v>941.2221381781724</v>
       </c>
       <c r="D4" t="n">
-        <v>30.6496180761</v>
+        <v>777.9053653049431</v>
       </c>
       <c r="E4" t="n">
-        <v>30.6496180761</v>
+        <v>611.6971594577966</v>
       </c>
       <c r="F4" t="n">
-        <v>30.6496180761</v>
+        <v>439.835385232357</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>273.5784155265891</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>141.0214741789781</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925403</v>
       </c>
       <c r="J4" t="n">
-        <v>28.95979943680427</v>
+        <v>98.74423414341206</v>
       </c>
       <c r="K4" t="n">
-        <v>56.79494646829576</v>
+        <v>325.2718353492493</v>
       </c>
       <c r="L4" t="n">
-        <v>56.79494646829576</v>
+        <v>679.9611566436701</v>
       </c>
       <c r="M4" t="n">
-        <v>84.63009349978725</v>
+        <v>1071.146951613921</v>
       </c>
       <c r="N4" t="n">
-        <v>112.4652405312787</v>
+        <v>1448.638462489957</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4652405312787</v>
+        <v>1804.06659116972</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>1935.64516572194</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="R4" t="n">
-        <v>84.0649272658043</v>
+        <v>2015.606682649875</v>
       </c>
       <c r="S4" t="n">
-        <v>84.0649272658043</v>
+        <v>2015.606682649875</v>
       </c>
       <c r="T4" t="n">
-        <v>84.0649272658043</v>
+        <v>1772.267334875775</v>
       </c>
       <c r="U4" t="n">
-        <v>84.0649272658043</v>
+        <v>1772.267334875775</v>
       </c>
       <c r="V4" t="n">
-        <v>84.0649272658043</v>
+        <v>1772.267334875775</v>
       </c>
       <c r="W4" t="n">
-        <v>84.0649272658043</v>
+        <v>1772.267334875775</v>
       </c>
       <c r="X4" t="n">
-        <v>84.0649272658043</v>
+        <v>1529.70343832158</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0649272658043</v>
+        <v>1303.360670011322</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>562.7942772618618</v>
+        <v>972.9074190595575</v>
       </c>
       <c r="C5" t="n">
-        <v>539.933951315566</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D5" t="n">
-        <v>244.0670617657223</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>222.1305259539839</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>58.62818727902372</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>58.32952890887641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>58.32952890887641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>23.43265765234762</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>313.4117961001494</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>313.4117961001494</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>474.1182708398749</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>474.1182708398749</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>474.1182708398749</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>474.1182708398749</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>764.0974092876767</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.076547735478</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.632882617381</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1171.632882617381</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1171.632882617381</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1171.632882617381</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1171.632882617381</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>875.7659930675372</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X5" t="n">
-        <v>579.8991035176934</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>578.6022375129878</v>
+        <v>1392.755783351088</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>276.9218176313819</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>274.702481157149</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>170.862522672434</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>170.862522672434</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>170.862522672434</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80875089003803</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.43265765234762</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>23.43265765234762</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>23.43265765234762</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>219.6761571892724</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>509.6552956370742</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>509.6552956370742</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>799.634434084876</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>799.634434084876</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1089.613572532678</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1089.613572532678</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.632882617381</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1090.308635178636</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1090.308635178636</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>905.5404390982723</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>905.5404390982723</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>709.0190619314894</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>545.5417156981523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>405.8488270514447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>502.5182621385065</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C7" t="n">
-        <v>330.5456990174225</v>
+        <v>286.7706961898929</v>
       </c>
       <c r="D7" t="n">
-        <v>167.2289261441932</v>
+        <v>123.4539233166636</v>
       </c>
       <c r="E7" t="n">
-        <v>167.2289261441932</v>
+        <v>123.4539233166636</v>
       </c>
       <c r="F7" t="n">
-        <v>167.2289261441932</v>
+        <v>123.4539233166636</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2289261441932</v>
+        <v>123.4539233166636</v>
       </c>
       <c r="H7" t="n">
-        <v>23.43265765234762</v>
+        <v>123.4539233166636</v>
       </c>
       <c r="I7" t="n">
-        <v>23.43265765234762</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43265765234762</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>249.9602588581848</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>539.9393973059866</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>829.9185357537884</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>881.6537441695792</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1171.632882617381</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1171.632882617381</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.632882617381</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1124.594269304554</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1124.594269304554</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>881.2549215304542</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>601.0704730307584</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>502.5182621385065</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>502.5182621385065</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>502.5182621385065</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>502.5182621385065</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1012.734393912848</v>
+        <v>1780.988227140366</v>
       </c>
       <c r="C8" t="n">
-        <v>942.4608605248408</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D8" t="n">
-        <v>923.2086437502451</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E8" t="n">
-        <v>901.2721079385067</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>476.1479261279069</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>950.4838058662885</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1407.269712569019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y8" t="n">
-        <v>1432.582758204378</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9119924608267</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>850.0084995511718</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>850.0084995511718</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>850.0084995511718</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253903</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.093114985063</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="C10" t="n">
-        <v>948.1205518639796</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D10" t="n">
-        <v>784.8037789907503</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5955731436038</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>594.4940582745251</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>985.6798532447758</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1363.171364120812</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1432.125227786372</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.940779286676</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1151.940779286676</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1120.093114985063</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1120.093114985063</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1120.093114985063</v>
+        <v>626.1818057320246</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1918.410291042733</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1526.406432312561</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.010682754091</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2448971338085</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6716716537461</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1407.296719273023</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2411.582820692081</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N11" t="n">
-        <v>3387.833879178782</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O11" t="n">
-        <v>3387.833879178782</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P11" t="n">
-        <v>4096.11315833671</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>4096.11315833671</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>3958.170370649444</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3734.712332502385</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2673.802182866315</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2303.361784077734</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>84.27338986437223</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>355.9708791439633</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>355.9708791439633</v>
+        <v>610.0460590406528</v>
       </c>
       <c r="L12" t="n">
-        <v>355.9708791439633</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M12" t="n">
-        <v>355.9708791439633</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N12" t="n">
-        <v>355.9708791439633</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O12" t="n">
-        <v>1245.452157155435</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P12" t="n">
-        <v>1346.796233497399</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.1764135929074</v>
+        <v>543.5554397491809</v>
       </c>
       <c r="C13" t="n">
-        <v>786.1007217283524</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="D13" t="n">
-        <v>657.6808201116519</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E13" t="n">
-        <v>526.3694855210342</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4045825521234</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G13" t="n">
-        <v>258.0444841028843</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675674</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070546</v>
+        <v>159.7940416299828</v>
       </c>
       <c r="K13" t="n">
-        <v>436.6971663314155</v>
+        <v>386.3216428358199</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443603</v>
+        <v>741.0109641302407</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100492</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027695</v>
+        <v>1509.688269976527</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.11639865629</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578191</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="R13" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.925887145058</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.483410627487</v>
+        <v>2039.376393044853</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.19583338432</v>
+        <v>1759.191944545158</v>
       </c>
       <c r="V13" t="n">
-        <v>1717.513965970797</v>
+        <v>1477.480477153186</v>
       </c>
       <c r="W13" t="n">
-        <v>1477.558433399839</v>
+        <v>1202.628073325699</v>
       </c>
       <c r="X13" t="n">
-        <v>1269.891408102173</v>
+        <v>960.0641767715045</v>
       </c>
       <c r="Y13" t="n">
-        <v>1078.445511048444</v>
+        <v>733.7214084612465</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2278.394075726157</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1886.390216995986</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1497.994467437515</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>716.6870882878306</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2448971338081</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>446.8768486812677</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>1162.385156656767</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>2092.010204276044</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>3096.296305695102</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N14" t="n">
-        <v>4072.547364181803</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O14" t="n">
-        <v>4213.669493218612</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P14" t="n">
-        <v>4213.669493218612</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q14" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3410.609095125463</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3033.785967549739</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>84.27338986437223</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>355.9708791439633</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>355.9708791439633</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>355.9708791439633</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M15" t="n">
-        <v>355.9708791439633</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N15" t="n">
-        <v>1398.85407871557</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1398.85407871557</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1398.85407871557</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1810.941710360179</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>908.1854269272852</v>
+        <v>543.5554397491846</v>
       </c>
       <c r="C16" t="n">
-        <v>771.10973506273</v>
+        <v>371.5828766281006</v>
       </c>
       <c r="D16" t="n">
-        <v>642.6898334460295</v>
+        <v>371.5828766281006</v>
       </c>
       <c r="E16" t="n">
-        <v>511.3784988554119</v>
+        <v>371.5828766281006</v>
       </c>
       <c r="F16" t="n">
-        <v>374.4135958865012</v>
+        <v>199.7211024026611</v>
       </c>
       <c r="G16" t="n">
-        <v>243.0534974372622</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>134.1541002019454</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>436.697166331415</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2403.067629201356</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>2194.625152683785</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>1949.337575440618</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.522979305175</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W16" t="n">
-        <v>1462.567446734217</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X16" t="n">
-        <v>1254.900421436551</v>
+        <v>960.0641767715082</v>
       </c>
       <c r="Y16" t="n">
-        <v>1063.454524382822</v>
+        <v>733.7214084612503</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2015.422568456721</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1623.41870972655</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1235.022960168079</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>843.9428915724658</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>453.7155810183947</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>84.27338986437223</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1156.97870190451</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2086.603749523787</v>
+        <v>1715.812045848769</v>
       </c>
       <c r="M17" t="n">
-        <v>2086.603749523787</v>
+        <v>2720.098147267828</v>
       </c>
       <c r="N17" t="n">
-        <v>2086.603749523787</v>
+        <v>3696.349205754529</v>
       </c>
       <c r="O17" t="n">
-        <v>2931.748399674599</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P17" t="n">
-        <v>3640.027678832526</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4096.11315833671</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4055.182648063432</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>3831.724609916373</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3509.132066299152</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3147.637587856027</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2770.814460280303</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2400.374061491722</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>91.72003282628407</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>363.4175221058752</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>953.9024486742147</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M18" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1810.941710360179</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.043684870987</v>
+        <v>543.5554397491846</v>
       </c>
       <c r="C19" t="n">
-        <v>758.9679930064319</v>
+        <v>371.5828766281006</v>
       </c>
       <c r="D19" t="n">
-        <v>630.5480913897314</v>
+        <v>371.5828766281006</v>
       </c>
       <c r="E19" t="n">
-        <v>499.2367567991138</v>
+        <v>371.5828766281006</v>
       </c>
       <c r="F19" t="n">
-        <v>362.271853830203</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>230.911755380964</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>122.012358145647</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443599</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145058</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627487</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.195833384319</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248877</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1450.425704677919</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>1242.758679380253</v>
+        <v>960.0641767715082</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.312782326524</v>
+        <v>733.7214084612502</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2448971338085</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>446.8768486812677</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>1162.385156656767</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>2138.636215143468</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>2983.78086529428</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>3692.060144452208</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4148.14562395639</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>3958.170370649442</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3410.609095125463</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3033.785967549739</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>91.72003282628407</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>363.4175221058752</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>953.9024486742147</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>953.9024486742147</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>953.9024486742147</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N21" t="n">
-        <v>953.9024486742147</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O21" t="n">
-        <v>953.9024486742147</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1810.941710360179</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>908.1854269272851</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C22" t="n">
-        <v>771.10973506273</v>
+        <v>847.3030669618349</v>
       </c>
       <c r="D22" t="n">
-        <v>642.6898334460295</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E22" t="n">
-        <v>511.3784988554119</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>389.4045825521233</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028842</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675674</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2538.305805425692</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2403.067629201356</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>2194.625152683785</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U22" t="n">
-        <v>1949.337575440618</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V22" t="n">
-        <v>1702.522979305175</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W22" t="n">
-        <v>1462.567446734217</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="X22" t="n">
-        <v>1254.900421436551</v>
+        <v>1431.217315060268</v>
       </c>
       <c r="Y22" t="n">
-        <v>1063.454524382822</v>
+        <v>1204.87454675001</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385142</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.61999771505441</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2099.356812126726</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>2571.490476939798</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>3416.63512709061</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4124.914406248537</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4580.999885752721</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.999885752721</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465097</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640145</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792995</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522367</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>99.06664067696624</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>370.7641299565573</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>370.7641299565573</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>370.7641299565573</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M24" t="n">
-        <v>370.7641299565573</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N24" t="n">
-        <v>370.7641299565573</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O24" t="n">
-        <v>1260.245407968029</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1354.142841348082</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>1818.288318210861</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.36338681328</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665724</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>930.5230214435894</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>793.4473295790343</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="D25" t="n">
-        <v>665.0274279623338</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="E25" t="n">
-        <v>533.7160933717162</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="F25" t="n">
-        <v>396.7511904028054</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3910919535664</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820974</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302444</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220076</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2425.40522371766</v>
+        <v>2185.297351822125</v>
       </c>
       <c r="T25" t="n">
-        <v>2216.962747200088</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U25" t="n">
-        <v>1971.675169956922</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1724.860573821479</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1484.905041250521</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.238015952855</v>
+        <v>862.6457877746758</v>
       </c>
       <c r="Y25" t="n">
-        <v>1085.792118899126</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
         <v>1180.414480198223</v>
@@ -6233,31 +6233,31 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.0699265966</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
         <v>4173.998480931861</v>
@@ -6294,13 +6294,13 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677403</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
         <v>381.4468456473314</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784956</v>
+        <v>496.5168264363577</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574117</v>
+        <v>496.5168264363577</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841824</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="E28" t="n">
-        <v>440.4214573370359</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358239</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302447</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
         <v>1132.196759100495</v>
@@ -6406,28 +6406,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.427736200819</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.427736200819</v>
+        <v>913.0255634586814</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890561</v>
+        <v>686.6827951484233</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6449,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6464,34 +6464,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690842</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.8188681099</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596601</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6537,31 +6537,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683197</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>201.4478291472357</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>201.4478291472357</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>201.4478291472357</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6646,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906431</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803853</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220165</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210686</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815408</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793285</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K32" t="n">
-        <v>1169.406598900327</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L32" t="n">
-        <v>2099.031646519604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M32" t="n">
-        <v>2099.031646519604</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.675861701817</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>3282.820511852629</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>3991.099791010557</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.18527051474</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396643</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077324</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562894</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744695</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793897</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>98.74147506984468</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>960.9238909177753</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N33" t="n">
-        <v>960.9238909177753</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O33" t="n">
-        <v>960.9238909177753</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P33" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619904</v>
+        <v>534.9883540242448</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223606</v>
+        <v>373.2152733633853</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305855</v>
+        <v>263.9650051710436</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648932</v>
+        <v>263.9650051710436</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209078</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862027</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910042</v>
+        <v>169.7905543892527</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557547</v>
+        <v>406.3146683543559</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090889</v>
+        <v>771.0005024080427</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238253</v>
+        <v>1172.182810137559</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473202</v>
+        <v>1559.670833772861</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>1925.095475211891</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2225.691199893058</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2362.687842893086</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2362.687842893086</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2202.752277872445</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>1969.61241255857</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1699.627446519099</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1428.115461587352</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1163.46254022009</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>931.0981261261193</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>714.9548402760859</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181376</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210688</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815417</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J35" t="n">
         <v>453.8982909248284</v>
@@ -6944,43 +6944,43 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>3103.317747938662</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="N35" t="n">
-        <v>4079.568806425363</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O35" t="n">
-        <v>4564.741605396643</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P35" t="n">
-        <v>4564.741605396643</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.741605396643</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077326</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555193</v>
       </c>
       <c r="V35" t="n">
         <v>3767.744219562896</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744697</v>
       </c>
       <c r="X35" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I36" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J36" t="n">
-        <v>370.4389643494358</v>
+        <v>362.9923213875239</v>
       </c>
       <c r="K36" t="n">
-        <v>960.9238909177753</v>
+        <v>953.4772479558635</v>
       </c>
       <c r="L36" t="n">
-        <v>960.9238909177753</v>
+        <v>953.4772479558635</v>
       </c>
       <c r="M36" t="n">
-        <v>960.9238909177753</v>
+        <v>953.4772479558635</v>
       </c>
       <c r="N36" t="n">
-        <v>960.9238909177753</v>
+        <v>953.4772479558635</v>
       </c>
       <c r="O36" t="n">
-        <v>960.9238909177753</v>
+        <v>953.4772479558635</v>
       </c>
       <c r="P36" t="n">
-        <v>1353.81767574096</v>
+        <v>1669.674964994362</v>
       </c>
       <c r="Q36" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R36" t="n">
         <v>1899.982462688443</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619898</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223601</v>
+        <v>786.2936862223606</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305852</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E37" t="n">
-        <v>528.838609264893</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209076</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H37" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793286</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910041</v>
+        <v>184.104015691004</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557544</v>
+        <v>445.9494722557542</v>
       </c>
       <c r="L37" t="n">
         <v>835.9566489090882</v>
@@ -7108,22 +7108,22 @@
         <v>1675.269665473201</v>
       </c>
       <c r="O37" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P37" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q37" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S37" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U37" t="n">
         <v>1957.693048850696</v>
@@ -7135,10 +7135,10 @@
         <v>1473.199079394146</v>
       </c>
       <c r="X37" t="n">
-        <v>1266.670133721405</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y37" t="n">
-        <v>1076.362316292601</v>
+        <v>1076.362316292602</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
@@ -7172,25 +7172,25 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J38" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K38" t="n">
-        <v>806.8031400834319</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L38" t="n">
-        <v>1736.428187702709</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="M38" t="n">
-        <v>2035.066617601203</v>
+        <v>2173.692700319386</v>
       </c>
       <c r="N38" t="n">
-        <v>3011.317676087904</v>
+        <v>3149.943758806087</v>
       </c>
       <c r="O38" t="n">
-        <v>3856.462326238716</v>
+        <v>3400.376846734533</v>
       </c>
       <c r="P38" t="n">
-        <v>4564.741605396644</v>
+        <v>4108.65612589246</v>
       </c>
       <c r="Q38" t="n">
         <v>4564.741605396644</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F40" t="n">
         <v>393.0117859209079</v>
@@ -7333,10 +7333,10 @@
         <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557542</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090881</v>
+        <v>835.9566489090882</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
@@ -7369,10 +7369,10 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W40" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X40" t="n">
-        <v>1266.670133721405</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y40" t="n">
         <v>1076.362316292602</v>
@@ -7394,55 +7394,55 @@
         <v>1500.463591181375</v>
       </c>
       <c r="E41" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G41" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I41" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J41" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K41" t="n">
-        <v>1169.406598900327</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L41" t="n">
-        <v>2099.031646519604</v>
+        <v>1020.919879727209</v>
       </c>
       <c r="M41" t="n">
-        <v>3103.317747938662</v>
+        <v>2025.205981146268</v>
       </c>
       <c r="N41" t="n">
-        <v>4079.568806425363</v>
+        <v>3001.457039632969</v>
       </c>
       <c r="O41" t="n">
-        <v>4079.568806425363</v>
+        <v>3846.601689783781</v>
       </c>
       <c r="P41" t="n">
-        <v>4079.568806425363</v>
+        <v>4554.880968941708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4447.18527051474</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="R41" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S41" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V41" t="n">
         <v>3767.744219562895</v>
@@ -7451,7 +7451,7 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X41" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y41" t="n">
         <v>2662.400453630242</v>
@@ -7482,10 +7482,10 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H42" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I42" t="n">
-        <v>98.74147506984468</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J42" t="n">
         <v>370.4389643494358</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619898</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223601</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305852</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648932</v>
+        <v>528.838609264893</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209076</v>
       </c>
       <c r="G43" t="n">
         <v>262.7897670965941</v>
@@ -7564,16 +7564,16 @@
         <v>155.0284494862027</v>
       </c>
       <c r="I43" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J43" t="n">
         <v>184.1040156910041</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557544</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090877</v>
+        <v>835.9566489090882</v>
       </c>
       <c r="M43" t="n">
         <v>1262.460299238252</v>
@@ -7612,7 +7612,7 @@
         <v>1266.670133721405</v>
       </c>
       <c r="Y43" t="n">
-        <v>1076.362316292602</v>
+        <v>1076.362316292601</v>
       </c>
     </row>
     <row r="44">
@@ -7640,46 +7640,46 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793283</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793283</v>
       </c>
       <c r="J44" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793283</v>
       </c>
       <c r="K44" t="n">
-        <v>1169.406598900327</v>
+        <v>806.8031400834319</v>
       </c>
       <c r="L44" t="n">
-        <v>2099.031646519604</v>
+        <v>1030.780516182143</v>
       </c>
       <c r="M44" t="n">
-        <v>2437.675861701817</v>
+        <v>2035.066617601201</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.675861701817</v>
+        <v>3011.317676087902</v>
       </c>
       <c r="O44" t="n">
-        <v>3282.820511852629</v>
+        <v>3856.462326238714</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010557</v>
+        <v>4564.741605396642</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.18527051474</v>
+        <v>4564.741605396642</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396642</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151236</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077323</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.19868355519</v>
       </c>
       <c r="V44" t="n">
         <v>3767.744219562895</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>658.4183231393881</v>
+        <v>658.418323139388</v>
       </c>
       <c r="C45" t="n">
-        <v>540.9124196568929</v>
+        <v>540.9124196568928</v>
       </c>
       <c r="D45" t="n">
-        <v>437.0724611721779</v>
+        <v>437.0724611721778</v>
       </c>
       <c r="E45" t="n">
-        <v>332.3705274451151</v>
+        <v>332.370527445115</v>
       </c>
       <c r="F45" t="n">
-        <v>238.7246971280193</v>
+        <v>238.7246971280192</v>
       </c>
       <c r="G45" t="n">
-        <v>144.6709253456233</v>
+        <v>144.6709253456232</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793283</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984468</v>
+        <v>98.74147506984467</v>
       </c>
       <c r="J45" t="n">
         <v>370.4389643494358</v>
@@ -7767,10 +7767,10 @@
         <v>1090.515567439495</v>
       </c>
       <c r="X45" t="n">
-        <v>927.0382212061585</v>
+        <v>927.0382212061584</v>
       </c>
       <c r="Y45" t="n">
-        <v>787.3453325594509</v>
+        <v>787.3453325594508</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619907</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223605</v>
+        <v>786.293686222361</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305858</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648935</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209081</v>
       </c>
       <c r="G46" t="n">
         <v>262.7897670965941</v>
@@ -7801,22 +7801,22 @@
         <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793283</v>
       </c>
       <c r="J46" t="n">
-        <v>184.1040156910044</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557547</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090887</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
@@ -7843,7 +7843,7 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X46" t="n">
         <v>1266.670133721406</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>551.4259247854848</v>
       </c>
       <c r="L2" t="n">
-        <v>66.42835256544261</v>
+        <v>553.9733664232983</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>102.2168137468351</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>65.50726948884378</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>64.55565941243201</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8052,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>538.0605578240088</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8070,16 +8070,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>50.15218732442293</v>
+        <v>342.4507677568496</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>537.4321651955041</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.86334842179818</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>47.61705358610257</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>49.08096458553168</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>50.69175002430551</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>155.288451720835</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>322.3281801399318</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>200.641814896992</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8228,13 +8228,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>330.4835824645766</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.0328952589433</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,34 +8289,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>220.6249909413382</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>315.4233073685748</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>314.2512488678869</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>314.6790618591739</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>314.8269805500465</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>315.4836605458311</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>73.00668725417695</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>315.4074081527697</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8465,13 +8465,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>360.1383873221887</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,16 +8526,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>382.424784075456</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8544,13 +8544,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8614,7 +8614,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>298.2451602832801</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8626,7 +8626,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8690,28 +8690,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>66.87048258519152</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8763,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>527.749438553447</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8781,16 +8781,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>124.1385950856008</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8933,19 +8933,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>423.2283679410461</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>179.9385644437099</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9000,22 +9000,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1074.760401518195</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9024,7 +9024,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>438.997171263331</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9164,22 +9164,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>753.0392000102053</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018616</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9407,7 +9407,7 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9422,7 +9422,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>101.2183764222929</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9492,10 +9492,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P21" t="n">
-        <v>418.6332501171365</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,10 +9644,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N23" t="n">
-        <v>514.1823145648216</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9717,10 +9717,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9729,16 +9729,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>116.6167335079122</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N26" t="n">
-        <v>924.179015540608</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -10112,10 +10112,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>952.685833629606</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,13 +10127,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>382.6486756511529</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10206,13 +10206,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>379.3444866548631</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10370,7 +10370,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>419.9591894246358</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10443,7 +10443,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10592,22 +10592,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>379.4961267198499</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>527.4644936704478</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10680,13 +10680,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>418.6332501171365</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>339.0862425948806</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>290.3536744352622</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11072,16 +11072,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>407.4544363110396</v>
+        <v>46.08491344796678</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>264.5518162697045</v>
       </c>
       <c r="M44" t="n">
-        <v>379.496126719849</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11315,10 +11315,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>356.3839468365909</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.326677470266276</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>26.8614014347009</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>356.3839468365901</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>68.15019490184595</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>14.84107679896578</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573504</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>260.3417921967419</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>96.04215463984872</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>144.6849832771898</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>26.86140143470122</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>356.3839468365899</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>4.521381524524532</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>14.84107679896587</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573504</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>26.86140143470079</v>
+        <v>71.9894918991928</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15.45161649253981</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>154.241666246365</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>71.9894918991921</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24886,7 +24886,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.98949189919234</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>43.42835199845634</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.4486361530527</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>154.4969123730879</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>132.2608181713048</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.67339494150447</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>36.47073954407627</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>810575.5604165951</v>
+        <v>858305.1453587491</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>837363.9428309324</v>
+        <v>861217.3111723978</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>854409.8551677762</v>
+        <v>861217.3111723978</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>848748.231891121</v>
+        <v>873004.5980998783</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>848748.231891121</v>
+        <v>873004.5980998784</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>848748.231891121</v>
+        <v>873004.5980998784</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>848748.2318911211</v>
+        <v>873004.5980998784</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>892819.6812568706</v>
+        <v>873004.5980998784</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>873004.5980998785</v>
+        <v>873004.5980998784</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893481.9173138593</v>
+        <v>880948.760146249</v>
       </c>
     </row>
     <row r="13">
@@ -26314,46 +26314,46 @@
         <v>218416.0005041862</v>
       </c>
       <c r="C2" t="n">
-        <v>218416.0005041863</v>
+        <v>218416.0005041862</v>
       </c>
       <c r="D2" t="n">
-        <v>218416.0005041863</v>
+        <v>218416.0005041862</v>
       </c>
       <c r="E2" t="n">
-        <v>207536.1870782017</v>
+        <v>210761.4011765426</v>
       </c>
       <c r="F2" t="n">
-        <v>207536.1870782018</v>
+        <v>210761.4011765426</v>
       </c>
       <c r="G2" t="n">
-        <v>207536.1870782017</v>
+        <v>210761.4011765426</v>
       </c>
       <c r="H2" t="n">
-        <v>207536.1870782017</v>
+        <v>210761.4011765427</v>
       </c>
       <c r="I2" t="n">
-        <v>218174.247891274</v>
+        <v>210761.4011765426</v>
       </c>
       <c r="J2" t="n">
+        <v>210761.4011765427</v>
+      </c>
+      <c r="K2" t="n">
         <v>210761.4011765426</v>
       </c>
-      <c r="K2" t="n">
-        <v>210761.4011765427</v>
-      </c>
       <c r="L2" t="n">
+        <v>212927.9908255528</v>
+      </c>
+      <c r="M2" t="n">
         <v>218416.0005041859</v>
       </c>
-      <c r="M2" t="n">
-        <v>218416.000504186</v>
-      </c>
       <c r="N2" t="n">
-        <v>218416.0005041859</v>
+        <v>218416.0005041862</v>
       </c>
       <c r="O2" t="n">
         <v>218416.0005041859</v>
       </c>
       <c r="P2" t="n">
-        <v>218416.0005041859</v>
+        <v>218416.000504186</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797271</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417943989</v>
+        <v>13105.84347019902</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447335</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596185</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826568</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.8196508527</v>
+        <v>134919.6914542163</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710405</v>
+        <v>10440.51617310207</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410370013</v>
+        <v>8077.990108497855</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819144</v>
+        <v>166235.4618077715</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.031155887655596e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310673.0923146576</v>
+        <v>206238.3574090726</v>
       </c>
       <c r="C4" t="n">
-        <v>252058.7628713709</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="D4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>123387.9602061568</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="F4" t="n">
-        <v>123387.9602061567</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
-        <v>123387.9602061567</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="H4" t="n">
-        <v>123387.9602061567</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="I4" t="n">
-        <v>128496.6028167944</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="J4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="K4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="L4" t="n">
-        <v>129357.882304913</v>
+        <v>104335.430691572</v>
       </c>
       <c r="M4" t="n">
         <v>129357.882304913</v>
@@ -26454,7 +26454,7 @@
         <v>129357.882304913</v>
       </c>
       <c r="O4" t="n">
-        <v>129357.882304913</v>
+        <v>129357.8823049131</v>
       </c>
       <c r="P4" t="n">
         <v>129357.882304913</v>
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863307</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.41981578419</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.60588240983</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482541</v>
+        <v>78598.94787646882</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
       <c r="N5" t="n">
         <v>72383.20046482542</v>
       </c>
       <c r="O5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137016.5856671878</v>
+        <v>-225612.1352832465</v>
       </c>
       <c r="C6" t="n">
-        <v>-170625.6863624087</v>
+        <v>-62002.48599278249</v>
       </c>
       <c r="D6" t="n">
-        <v>-110364.734374488</v>
+        <v>-48896.64252258348</v>
       </c>
       <c r="E6" t="n">
-        <v>-187205.6705034649</v>
+        <v>-183791.9022765438</v>
       </c>
       <c r="F6" t="n">
-        <v>17196.04295615367</v>
+        <v>31947.4542800968</v>
       </c>
       <c r="G6" t="n">
-        <v>17196.0429561536</v>
+        <v>31947.45428009683</v>
       </c>
       <c r="H6" t="n">
-        <v>17196.04295615361</v>
+        <v>31947.45428009694</v>
       </c>
       <c r="I6" t="n">
-        <v>-7278.177136195882</v>
+        <v>31947.4542800968</v>
       </c>
       <c r="J6" t="n">
-        <v>-10296.33470857156</v>
+        <v>-102972.2371741195</v>
       </c>
       <c r="K6" t="n">
-        <v>-36150.47948482288</v>
+        <v>21506.93810699471</v>
       </c>
       <c r="L6" t="n">
-        <v>-19683.54636925262</v>
+        <v>21879.03541782326</v>
       </c>
       <c r="M6" t="n">
-        <v>-130858.2032474669</v>
+        <v>-149560.5440733241</v>
       </c>
       <c r="N6" t="n">
-        <v>16674.91773444744</v>
+        <v>16674.91773444774</v>
       </c>
       <c r="O6" t="n">
-        <v>16674.91773444749</v>
+        <v>16674.91773444739</v>
       </c>
       <c r="P6" t="n">
-        <v>16674.91773444746</v>
+        <v>16674.91773444753</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>10.09748763562232</v>
+      </c>
+      <c r="M2" t="n">
         <v>35.67460137263963</v>
       </c>
-      <c r="M2" t="n">
-        <v>35.67460137263964</v>
-      </c>
       <c r="N2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="O2" t="n">
         <v>35.67460137263964</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906754</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9082206543453</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26829,7 +26829,7 @@
         <v>1141.185401349161</v>
       </c>
       <c r="P4" t="n">
-        <v>1141.185401349161</v>
+        <v>1141.18540134916</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.617859388049295e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701727</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.038944859569495e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906754</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215256</v>
+        <v>40.56648912491869</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059889</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.8325981335272</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674959</v>
+        <v>515.6613239906754</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215258</v>
+        <v>40.56648912491869</v>
       </c>
       <c r="L4" t="n">
-        <v>30.89316888229303</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>584.9575882335665</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.617859388049295e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906754</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215256</v>
+        <v>40.56648912491869</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059889</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>395.2524411637957</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27439,7 +27439,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>88.21453431485057</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78.89006842480458</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4398532622953</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.1796496274208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.4994630599574</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.5672950116773</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>136.4780898758905</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>11.12693387279219</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.4519170468789</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -27600,10 +27600,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>126.1514739525044</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>259.0056247042833</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27673,13 +27673,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>99.51921554831131</v>
+        <v>34.71835988167345</v>
       </c>
       <c r="X5" t="n">
-        <v>114.6945781895849</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>114.1337013381797</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27746,13 +27746,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>20.60474129238492</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>181.327663934722</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>353.0609246327053</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>298.0622839885685</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>240.5746921306156</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>165.7641609568372</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.54790254396354</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.54790254396354</v>
+        <v>-3.880510727564494e-12</v>
       </c>
       <c r="K13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.54790254396354</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="F20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562232</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263987</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="41">
@@ -30645,7 +30645,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263879</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M43" t="n">
         <v>35.67460137263964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>515.6613239906754</v>
       </c>
       <c r="L2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906754</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11631013281968</v>
+        <v>64.78555084740327</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>515.6613239906754</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,16 +34790,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>26.98029760220071</v>
+        <v>319.2788780346274</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>515.6613239906754</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.11631013281968</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>26.98029760220071</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>28.11631013281968</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>28.11631013281968</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>132.9076510628485</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>292.9082206543453</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>162.3297724643691</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P5" t="n">
-        <v>292.9082206543453</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.9082206543453</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,34 +35009,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>198.2257571080049</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>292.9082206543453</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>292.9082206543453</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>292.9082206543453</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>292.9082206543453</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>292.9082206543453</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>52.25778627857656</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>292.9082206543453</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.0137127175907</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>359.9096973612265</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35334,7 +35334,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>276.3264003875789</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35346,7 +35346,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35410,28 +35410,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>31.10588179038218</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>505.3502047201137</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>102.3677538807721</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523427</v>
+        <v>58.07204871126685</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35653,19 +35653,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416143</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>142.5476050876858</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1053.417373304653</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>416.2501329743525</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523427</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>717.2745992153959</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692387</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523427</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36142,7 +36142,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>66.18572652749648</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P21" t="n">
-        <v>396.8624089123078</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523427</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,10 +36364,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N23" t="n">
-        <v>476.9026917303756</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36437,10 +36437,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36449,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>94.84589230308353</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523427</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N26" t="n">
-        <v>886.899392706162</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36832,10 +36832,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>914.3737911969831</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,13 +36847,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>360.2494418178196</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>342.0648638204171</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37090,7 +37090,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391035</v>
+        <v>68.16953634689304</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.9132464293972</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.3695293471584</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.2346542722393</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.4020440760625</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333628</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.632045132492</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747758</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,22 +37312,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>490.0735343144237</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>396.8624089123078</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391035</v>
       </c>
       <c r="K37" t="n">
         <v>264.4903601664146</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>301.6549796954487</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>252.9627150792381</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391035</v>
       </c>
       <c r="K40" t="n">
         <v>264.4903601664146</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37792,16 +37792,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.3297617064416</v>
+        <v>9.960238843368735</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>264.4903601664146</v>
       </c>
       <c r="L43" t="n">
-        <v>393.9466430841749</v>
+        <v>393.9466430841758</v>
       </c>
       <c r="M43" t="n">
         <v>430.8117680092566</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>226.2397738370816</v>
       </c>
       <c r="M44" t="n">
-        <v>342.0648638204171</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38035,10 +38035,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
